--- a/src/main/resources/data/raw data/2023/도봉구/행정지원과/2023년 7월 업무추진비 집행내역(행정지원과).xlsx
+++ b/src/main/resources/data/raw data/2023/도봉구/행정지원과/2023년 7월 업무추진비 집행내역(행정지원과).xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IDE\raw data\2023\도봉구\행정지원과\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB63DAB5-399A-47F2-B91C-A3D8DD29A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="240" windowWidth="14610" windowHeight="11430" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구청장" sheetId="12" r:id="rId1"/>
     <sheet name="부구청장" sheetId="10" r:id="rId2"/>
     <sheet name="행정안전국장" sheetId="9" r:id="rId3"/>
     <sheet name="행정지원과" sheetId="8" r:id="rId4"/>
-    <sheet name="행사안전요원 명단(시트4 31번 관련)" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">구청장!$A$3:$H$27</definedName>
@@ -21,12 +26,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">구청장!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">구청장!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="284">
   <si>
     <t>연번</t>
   </si>
@@ -1021,839 +1026,6 @@
   <si>
     <t>더 탑 김밥 떡볶이</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도봉구 출범 50주년 기념 행사 지원 근무자 명단</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">○ 근무일시: 2023. 7. 1.(토) 15:00~23:00[8시간]  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※ 안전관리교육 및 배치: 15:00~15:30</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 근무장소: 덕성여대 하나누리관(도봉구 삼양로 144길 33) 일대</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>연번</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>구  분</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서명</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>직   급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>성   명</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>근무내용</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>총     괄</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정지원과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정5급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>남</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>박성준</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사총괄</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>총괄팀장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정6급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>박종우</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사총괄팀장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행·안전요원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>강기탁</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사진행 및 안전요원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>석용균</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>여</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>남궁진영</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공업6급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>임종목</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정7급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>박제열</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사담당</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>유주영</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이윤서</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이주현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정8급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김다은</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>강영숙</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>박윤식</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>박진호</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동하</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김기홍</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정9급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>임수빈</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>신희경</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현아</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>손세란</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지은</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기운영6급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>안병재</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공업7급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>강수길</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김도현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시설8급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김용채</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시설관리8급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>임준우</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전7급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김범준</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>장시화</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전8급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이교상</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>정민규</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>송정민</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>강성민</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>안전요원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>감사담당관</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정8급</t>
-  </si>
-  <si>
-    <t>여</t>
-  </si>
-  <si>
-    <t>이은원</t>
-  </si>
-  <si>
-    <t>행사안전요원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍보담당관</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이정연</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>자치행정과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>남</t>
-  </si>
-  <si>
-    <t>맹기열</t>
-  </si>
-  <si>
-    <t>교육지원과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진아</t>
-  </si>
-  <si>
-    <t>재난안전과</t>
-  </si>
-  <si>
-    <t>방재안전6급</t>
-  </si>
-  <si>
-    <t>박현철</t>
-  </si>
-  <si>
-    <t>민원여권과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정9급</t>
-  </si>
-  <si>
-    <t>김정혜</t>
-  </si>
-  <si>
-    <t>기획예산과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>최태열</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역경제과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>임지수</t>
-  </si>
-  <si>
-    <t>재무과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>안아사</t>
-  </si>
-  <si>
-    <t>징수과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>세무9급</t>
-  </si>
-  <si>
-    <t>이헌욱</t>
-  </si>
-  <si>
-    <t>부과과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>세무8급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>나경아</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>청년미래과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김우원</t>
-  </si>
-  <si>
-    <t>문화체육과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>장진수</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>기후환경과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경6급</t>
-  </si>
-  <si>
-    <t>한영호</t>
-  </si>
-  <si>
-    <t>자원순환과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건호</t>
-  </si>
-  <si>
-    <t>공원여과과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹지9급</t>
-  </si>
-  <si>
-    <t>강해성</t>
-  </si>
-  <si>
-    <t>복지정책과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회9급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>유은병</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활보장과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>실무수습</t>
-  </si>
-  <si>
-    <t>김가빈</t>
-  </si>
-  <si>
-    <t>어르신장애인과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>전종윤</t>
-  </si>
-  <si>
-    <t>가족정책과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김미연</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>아동청소년과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회9급</t>
-  </si>
-  <si>
-    <t>최유미</t>
-  </si>
-  <si>
-    <t>재건축재개발과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>건축7급</t>
-  </si>
-  <si>
-    <t>엄준령</t>
-  </si>
-  <si>
-    <t>주택과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>오재준</t>
-  </si>
-  <si>
-    <t>도시계획과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공업9급</t>
-  </si>
-  <si>
-    <t>고강희</t>
-  </si>
-  <si>
-    <t>건축과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시설9급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>조영혁</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>부동산정보과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시설7급</t>
-  </si>
-  <si>
-    <t>이건희</t>
-  </si>
-  <si>
-    <t>교통행정과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김도경</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>교통지도과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이원재</t>
-  </si>
-  <si>
-    <t>가로관리과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지희</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>도로과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재덕</t>
-  </si>
-  <si>
-    <t>치수과</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공업7급</t>
-  </si>
-  <si>
-    <t>박희앙</t>
-  </si>
-  <si>
-    <t>보건정책과</t>
-  </si>
-  <si>
-    <t>간호7급</t>
-  </si>
-  <si>
-    <t>김남희</t>
-  </si>
-  <si>
-    <t>의료지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이태화</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>도봉문화재단</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>6급</t>
-  </si>
-  <si>
-    <t>우준향</t>
-  </si>
-  <si>
-    <t>경영기획팀</t>
-  </si>
-  <si>
-    <t>7급</t>
-  </si>
-  <si>
-    <t>김현미</t>
-  </si>
-  <si>
-    <t>8급</t>
-  </si>
-  <si>
-    <t>권아영</t>
-  </si>
-  <si>
-    <t>혁신관리팀</t>
-  </si>
-  <si>
-    <t>김지은</t>
-  </si>
-  <si>
-    <t>5급</t>
-  </si>
-  <si>
-    <t>금준규</t>
-  </si>
-  <si>
-    <t>학마을도서관</t>
-  </si>
-  <si>
-    <t>유승희</t>
-  </si>
-  <si>
-    <t>윤혜지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이나라도서관</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>황소연</t>
-  </si>
-  <si>
-    <t>기적의도서관</t>
-  </si>
-  <si>
-    <t>이경미</t>
-  </si>
-  <si>
-    <t>강병석</t>
-  </si>
-  <si>
-    <t>진행요원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍보담당관</t>
-  </si>
-  <si>
-    <t>양지석</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>언론 홍보 지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정6급</t>
-  </si>
-  <si>
-    <t>김동진</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>언론취재 지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>신영혜</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별홍보대사 등 홍보지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>박진혜</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진영상공모전 운영</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤태영</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이숙영</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍보부스 운영 및 특별홍보대사 관련</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김주열</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이민욱</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김규현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>임기제8급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>민동윤</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사 영상 촬영지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은환</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지민</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>조유하</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간제임기제라급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이주영</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사 사진 촬영지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>안지예</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간제임기제마급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍준석</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정5급</t>
-  </si>
-  <si>
-    <t>이영종</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>도봉구민대상시상 지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>조주희</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>도봉구민대상시상 지원</t>
-  </si>
-  <si>
-    <t>박윤미</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회7급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이병학</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>박동원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>임택근</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>정주연</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>권지수</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>신민주</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간제임기제나급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>신지연</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>구립예술단공연 및 버스킹 공연 지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>권미주</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>남현욱</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>나현진</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>구립예술단공연 및 버스킹 공연 지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>명동찌개마을</t>
@@ -2008,13 +1180,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,47 +1277,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="굴림"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="굴림"/>
@@ -2153,7 +1284,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2166,14 +1297,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2319,165 +1444,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2487,7 +1453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2632,75 +1598,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2712,6 +1609,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2774,7 +1677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2807,9 +1710,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2842,6 +1762,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3017,7 +1954,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3041,17 +1979,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -3779,12 +2717,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H27">
-    <sortState ref="A6:H42">
+  <autoFilter ref="A3:H27" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H42">
       <sortCondition ref="D3:D42"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A4:J24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J24">
     <sortCondition ref="D4:D24"/>
   </sortState>
   <mergeCells count="1">
@@ -3797,7 +2735,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3819,17 +2758,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4757,12 +3696,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I34">
-    <sortState ref="A4:J34">
+  <autoFilter ref="A3:I34" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J34">
       <sortCondition ref="D4:D34"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A4:J27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J27">
     <sortCondition ref="D4:D27"/>
   </sortState>
   <mergeCells count="1">
@@ -4775,7 +3714,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4797,17 +3737,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -5564,12 +4504,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I23">
-    <sortState ref="A4:I26">
+  <autoFilter ref="A3:I23" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I26">
       <sortCondition ref="D4:D26"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A4:I27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I27">
     <sortCondition ref="D4:D27"/>
   </sortState>
   <mergeCells count="1">
@@ -5582,7 +4522,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5606,17 +4547,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -6495,19 +5436,19 @@
       <c r="B33" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="49">
         <v>45110</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="50">
         <v>60650</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="48">
         <v>10</v>
       </c>
       <c r="H33" s="29" t="s">
@@ -6524,23 +5465,23 @@
       <c r="B34" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="49">
         <v>45110</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="50">
         <v>850000</v>
       </c>
-      <c r="F34" s="71" t="s">
+      <c r="F34" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="G34" s="71">
+      <c r="G34" s="48">
         <v>105</v>
       </c>
-      <c r="H34" s="74" t="s">
-        <v>503</v>
+      <c r="H34" s="51" t="s">
+        <v>283</v>
       </c>
       <c r="I34" s="30" t="s">
         <v>247</v>
@@ -6553,19 +5494,19 @@
       <c r="B35" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="49">
         <v>45111</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="50">
         <v>56000</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="G35" s="71">
+      <c r="G35" s="48">
         <v>15</v>
       </c>
       <c r="H35" s="29" t="s">
@@ -6582,19 +5523,19 @@
       <c r="B36" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="49">
         <v>45112</v>
       </c>
-      <c r="E36" s="73">
+      <c r="E36" s="50">
         <v>34300</v>
       </c>
-      <c r="F36" s="71" t="s">
+      <c r="F36" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="G36" s="71">
+      <c r="G36" s="48">
         <v>7</v>
       </c>
       <c r="H36" s="29" t="s">
@@ -6611,19 +5552,19 @@
       <c r="B37" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D37" s="49">
         <v>45117</v>
       </c>
-      <c r="E37" s="73">
+      <c r="E37" s="50">
         <v>70000</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="71">
+      <c r="G37" s="48">
         <v>15</v>
       </c>
       <c r="H37" s="29" t="s">
@@ -6640,23 +5581,23 @@
       <c r="B38" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="49">
         <v>45114</v>
       </c>
-      <c r="E38" s="73">
+      <c r="E38" s="50">
         <v>285000</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G38" s="71">
+      <c r="G38" s="48">
         <v>10</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>471</v>
+        <v>251</v>
       </c>
       <c r="I38" s="30" t="s">
         <v>225</v>
@@ -6669,19 +5610,19 @@
       <c r="B39" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D39" s="72">
+      <c r="D39" s="49">
         <v>45112</v>
       </c>
-      <c r="E39" s="73">
+      <c r="E39" s="50">
         <v>75000</v>
       </c>
-      <c r="F39" s="71" t="s">
+      <c r="F39" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="G39" s="71">
+      <c r="G39" s="48">
         <v>7</v>
       </c>
       <c r="H39" s="29" t="s">
@@ -6698,19 +5639,19 @@
       <c r="B40" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="72">
+      <c r="D40" s="49">
         <v>45118</v>
       </c>
-      <c r="E40" s="73">
+      <c r="E40" s="50">
         <v>141610</v>
       </c>
-      <c r="F40" s="71" t="s">
+      <c r="F40" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="G40" s="71">
+      <c r="G40" s="48">
         <v>15</v>
       </c>
       <c r="H40" s="29" t="s">
@@ -6727,23 +5668,23 @@
       <c r="B41" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D41" s="72">
+      <c r="D41" s="49">
         <v>45119</v>
       </c>
-      <c r="E41" s="73">
+      <c r="E41" s="50">
         <v>41000</v>
       </c>
-      <c r="F41" s="71" t="s">
-        <v>470</v>
-      </c>
-      <c r="G41" s="71">
+      <c r="F41" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" s="48">
         <v>6</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>471</v>
+        <v>251</v>
       </c>
       <c r="I41" s="30" t="s">
         <v>225</v>
@@ -6756,23 +5697,23 @@
       <c r="B42" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="49">
         <v>45119</v>
       </c>
-      <c r="E42" s="73">
+      <c r="E42" s="50">
         <v>298000</v>
       </c>
-      <c r="F42" s="71" t="s">
-        <v>472</v>
-      </c>
-      <c r="G42" s="71">
+      <c r="F42" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="48">
         <v>10</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>474</v>
+        <v>254</v>
       </c>
       <c r="I42" s="30" t="s">
         <v>247</v>
@@ -6785,23 +5726,23 @@
       <c r="B43" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D43" s="49">
         <v>45120</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="50">
         <v>331000</v>
       </c>
-      <c r="F43" s="71" t="s">
-        <v>472</v>
-      </c>
-      <c r="G43" s="71">
+      <c r="F43" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="48">
         <v>12</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>473</v>
+        <v>253</v>
       </c>
       <c r="I43" s="30" t="s">
         <v>247</v>
@@ -6814,19 +5755,19 @@
       <c r="B44" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="49">
         <v>45121</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="50">
         <v>52000</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="F44" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="G44" s="71">
+      <c r="G44" s="48">
         <v>6</v>
       </c>
       <c r="H44" s="29" t="s">
@@ -6843,23 +5784,23 @@
       <c r="B45" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D45" s="72">
+      <c r="D45" s="49">
         <v>45125</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="50">
         <v>33700</v>
       </c>
-      <c r="F45" s="71" t="s">
-        <v>475</v>
-      </c>
-      <c r="G45" s="71">
+      <c r="F45" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45" s="48">
         <v>4</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>476</v>
+        <v>256</v>
       </c>
       <c r="I45" s="30" t="s">
         <v>247</v>
@@ -6872,23 +5813,23 @@
       <c r="B46" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="49">
         <v>45126</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="50">
         <v>237000</v>
       </c>
-      <c r="F46" s="71" t="s">
-        <v>478</v>
-      </c>
-      <c r="G46" s="71">
+      <c r="F46" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="48">
         <v>10</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>477</v>
+        <v>257</v>
       </c>
       <c r="I46" s="30" t="s">
         <v>247</v>
@@ -6901,23 +5842,23 @@
       <c r="B47" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="72">
+      <c r="D47" s="49">
         <v>45128</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="50">
         <v>44000</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="G47" s="71">
+      <c r="G47" s="48">
         <v>6</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>479</v>
+        <v>259</v>
       </c>
       <c r="I47" s="30" t="s">
         <v>247</v>
@@ -6930,26 +5871,26 @@
       <c r="B48" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D48" s="72">
+      <c r="D48" s="49">
         <v>45131</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="50">
         <v>57000</v>
       </c>
-      <c r="F48" s="71" t="s">
-        <v>480</v>
-      </c>
-      <c r="G48" s="71">
+      <c r="F48" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="G48" s="48">
         <v>5</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>481</v>
+        <v>261</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>482</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6959,23 +5900,23 @@
       <c r="B49" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D49" s="72">
+      <c r="D49" s="49">
         <v>45131</v>
       </c>
-      <c r="E49" s="73">
+      <c r="E49" s="50">
         <v>18450</v>
       </c>
-      <c r="F49" s="71" t="s">
-        <v>483</v>
-      </c>
-      <c r="G49" s="71">
+      <c r="F49" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="G49" s="48">
         <v>6</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>484</v>
+        <v>264</v>
       </c>
       <c r="I49" s="30" t="s">
         <v>247</v>
@@ -6988,23 +5929,23 @@
       <c r="B50" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D50" s="72">
+      <c r="D50" s="49">
         <v>45131</v>
       </c>
-      <c r="E50" s="73">
+      <c r="E50" s="50">
         <v>35100</v>
       </c>
-      <c r="F50" s="71" t="s">
-        <v>485</v>
-      </c>
-      <c r="G50" s="71">
+      <c r="F50" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G50" s="48">
         <v>9</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>486</v>
+        <v>266</v>
       </c>
       <c r="I50" s="30" t="s">
         <v>247</v>
@@ -7017,23 +5958,23 @@
       <c r="B51" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="71" t="s">
+      <c r="C51" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="72">
+      <c r="D51" s="49">
         <v>45131</v>
       </c>
-      <c r="E51" s="73">
+      <c r="E51" s="50">
         <v>49500</v>
       </c>
-      <c r="F51" s="71" t="s">
-        <v>487</v>
-      </c>
-      <c r="G51" s="71">
+      <c r="F51" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" s="48">
         <v>9</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>488</v>
+        <v>268</v>
       </c>
       <c r="I51" s="30" t="s">
         <v>247</v>
@@ -7046,23 +5987,23 @@
       <c r="B52" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="49">
         <v>45128</v>
       </c>
-      <c r="E52" s="73">
+      <c r="E52" s="50">
         <v>130000</v>
       </c>
-      <c r="F52" s="71" t="s">
-        <v>489</v>
-      </c>
-      <c r="G52" s="71">
+      <c r="F52" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" s="48">
         <v>7</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>490</v>
+        <v>270</v>
       </c>
       <c r="I52" s="30" t="s">
         <v>247</v>
@@ -7073,25 +6014,25 @@
         <v>50</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>491</v>
-      </c>
-      <c r="C53" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D53" s="72">
+      <c r="D53" s="49">
         <v>45134</v>
       </c>
-      <c r="E53" s="73">
+      <c r="E53" s="50">
         <v>17400</v>
       </c>
-      <c r="F53" s="71" t="s">
-        <v>492</v>
-      </c>
-      <c r="G53" s="71">
+      <c r="F53" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="G53" s="48">
         <v>5</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>493</v>
+        <v>273</v>
       </c>
       <c r="I53" s="30" t="s">
         <v>247</v>
@@ -7104,23 +6045,23 @@
       <c r="B54" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D54" s="72">
+      <c r="D54" s="49">
         <v>45133</v>
       </c>
-      <c r="E54" s="73">
+      <c r="E54" s="50">
         <v>234000</v>
       </c>
-      <c r="F54" s="71" t="s">
-        <v>495</v>
-      </c>
-      <c r="G54" s="71">
+      <c r="F54" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="G54" s="48">
         <v>8</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>494</v>
+        <v>274</v>
       </c>
       <c r="I54" s="30" t="s">
         <v>247</v>
@@ -7131,25 +6072,25 @@
         <v>52</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="C55" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D55" s="72">
+      <c r="D55" s="49">
         <v>45135</v>
       </c>
-      <c r="E55" s="73">
+      <c r="E55" s="50">
         <v>86000</v>
       </c>
-      <c r="F55" s="71" t="s">
-        <v>497</v>
-      </c>
-      <c r="G55" s="71">
+      <c r="F55" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="G55" s="48">
         <v>5</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>498</v>
+        <v>278</v>
       </c>
       <c r="I55" s="30" t="s">
         <v>247</v>
@@ -7162,23 +6103,23 @@
       <c r="B56" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="72">
+      <c r="D56" s="49">
         <v>45134</v>
       </c>
-      <c r="E56" s="73">
+      <c r="E56" s="50">
         <v>226000</v>
       </c>
-      <c r="F56" s="71" t="s">
-        <v>499</v>
-      </c>
-      <c r="G56" s="71">
+      <c r="F56" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="G56" s="48">
         <v>10</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="I56" s="30" t="s">
         <v>247</v>
@@ -7191,35 +6132,35 @@
       <c r="B57" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D57" s="72">
+      <c r="D57" s="49">
         <v>45128</v>
       </c>
-      <c r="E57" s="73">
+      <c r="E57" s="50">
         <v>20000</v>
       </c>
-      <c r="F57" s="71" t="s">
-        <v>501</v>
-      </c>
-      <c r="G57" s="71">
+      <c r="F57" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="G57" s="48">
         <v>2</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>502</v>
+        <v>282</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>482</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I16">
-    <sortState ref="A4:I21">
+  <autoFilter ref="A3:I16" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I21">
       <sortCondition ref="D3:D17"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A4:I49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I49">
     <sortCondition ref="D4:D49"/>
   </sortState>
   <mergeCells count="1">
@@ -7229,2510 +6170,4 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.49" bottom="0.41" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.375" style="51" customWidth="1"/>
-    <col min="2" max="3" width="17.75" style="51" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="51" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="51" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="51" customWidth="1"/>
-    <col min="7" max="7" width="41.625" style="51" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" s="53" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" s="53" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57">
-        <v>1</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57">
-        <v>2</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57">
-        <v>3</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="57">
-        <v>4</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57">
-        <v>5</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57">
-        <v>6</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
-        <v>7</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57">
-        <v>8</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57">
-        <v>9</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57">
-        <v>10</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57">
-        <v>11</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57">
-        <v>12</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57">
-        <v>13</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57">
-        <v>14</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57">
-        <v>15</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57">
-        <v>16</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
-        <v>17</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57">
-        <v>18</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57">
-        <v>19</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57">
-        <v>20</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57">
-        <v>21</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57">
-        <v>22</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57">
-        <v>23</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57">
-        <v>24</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57">
-        <v>25</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57">
-        <v>26</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>304</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57">
-        <v>27</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="E33" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>306</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="57">
-        <v>28</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="E34" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="57">
-        <v>29</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="G35" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57">
-        <v>30</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="E36" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="G36" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="57">
-        <v>31</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="E37" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F37" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="57">
-        <v>32</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="G38" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="57">
-        <v>33</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="E39" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="G39" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="57">
-        <v>34</v>
-      </c>
-      <c r="B40" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>319</v>
-      </c>
-      <c r="G40" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="57">
-        <v>35</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C41" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F41" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="G41" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="57">
-        <v>36</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C42" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="D42" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F42" s="60" t="s">
-        <v>325</v>
-      </c>
-      <c r="G42" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57">
-        <v>37</v>
-      </c>
-      <c r="B43" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="E43" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F43" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="G43" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="57">
-        <v>38</v>
-      </c>
-      <c r="B44" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F44" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="G44" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="57">
-        <v>39</v>
-      </c>
-      <c r="B45" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E45" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="F45" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="G45" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="57">
-        <v>40</v>
-      </c>
-      <c r="B46" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E46" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F46" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="G46" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="57">
-        <v>41</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E47" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F47" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="G47" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="57">
-        <v>42</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="F48" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="G48" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="57">
-        <v>43</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F49" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="G49" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="57">
-        <v>44</v>
-      </c>
-      <c r="B50" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="E50" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F50" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="G50" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="57">
-        <v>45</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>346</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E51" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="F51" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="G51" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="57">
-        <v>46</v>
-      </c>
-      <c r="B52" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C52" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="E52" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F52" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="G52" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="57">
-        <v>47</v>
-      </c>
-      <c r="B53" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="D53" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="E53" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F53" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="G53" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="57">
-        <v>48</v>
-      </c>
-      <c r="B54" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C54" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="D54" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E54" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F54" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="G54" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="57">
-        <v>49</v>
-      </c>
-      <c r="B55" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C55" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>356</v>
-      </c>
-      <c r="E55" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F55" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="G55" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="57">
-        <v>50</v>
-      </c>
-      <c r="B56" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C56" s="61" t="s">
-        <v>358</v>
-      </c>
-      <c r="D56" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="E56" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F56" s="60" t="s">
-        <v>360</v>
-      </c>
-      <c r="G56" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="57">
-        <v>51</v>
-      </c>
-      <c r="B57" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="D57" s="60" t="s">
-        <v>362</v>
-      </c>
-      <c r="E57" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="F57" s="60" t="s">
-        <v>363</v>
-      </c>
-      <c r="G57" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="57">
-        <v>52</v>
-      </c>
-      <c r="B58" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="D58" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F58" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="G58" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="57">
-        <v>53</v>
-      </c>
-      <c r="B59" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="D59" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="E59" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F59" s="60" t="s">
-        <v>367</v>
-      </c>
-      <c r="G59" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="57">
-        <v>54</v>
-      </c>
-      <c r="B60" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="D60" s="60" t="s">
-        <v>369</v>
-      </c>
-      <c r="E60" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="F60" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="G60" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="57">
-        <v>55</v>
-      </c>
-      <c r="B61" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="D61" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="E61" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F61" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="G61" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="57">
-        <v>56</v>
-      </c>
-      <c r="B62" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C62" s="61" t="s">
-        <v>374</v>
-      </c>
-      <c r="D62" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E62" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F62" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="G62" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="57">
-        <v>57</v>
-      </c>
-      <c r="B63" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="E63" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F63" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="G63" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="57">
-        <v>58</v>
-      </c>
-      <c r="B64" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="D64" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="E64" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F64" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="G64" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="57">
-        <v>59</v>
-      </c>
-      <c r="B65" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C65" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="D65" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="E65" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F65" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="G65" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="57">
-        <v>60</v>
-      </c>
-      <c r="B66" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C66" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="D66" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F66" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="G66" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="57">
-        <v>61</v>
-      </c>
-      <c r="B67" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="D67" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="E67" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F67" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="G67" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="57">
-        <v>62</v>
-      </c>
-      <c r="B68" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>389</v>
-      </c>
-      <c r="D68" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="E68" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F68" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="G68" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="57">
-        <v>63</v>
-      </c>
-      <c r="B69" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C69" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="D69" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="E69" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F69" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="G69" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="57">
-        <v>64</v>
-      </c>
-      <c r="B70" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C70" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="E70" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F70" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="G70" s="62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="57">
-        <v>65</v>
-      </c>
-      <c r="B71" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="D71" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="E71" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="F71" s="60" t="s">
-        <v>398</v>
-      </c>
-      <c r="G71" s="62" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="57">
-        <v>66</v>
-      </c>
-      <c r="B72" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C72" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="D72" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="E72" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F72" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="G72" s="62" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="57">
-        <v>67</v>
-      </c>
-      <c r="B73" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>403</v>
-      </c>
-      <c r="G73" s="64" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="57">
-        <v>68</v>
-      </c>
-      <c r="B74" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D74" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="E74" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="F74" s="61" t="s">
-        <v>406</v>
-      </c>
-      <c r="G74" s="64" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="57">
-        <v>69</v>
-      </c>
-      <c r="B75" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D75" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="E75" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="F75" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="G75" s="64" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="57">
-        <v>70</v>
-      </c>
-      <c r="B76" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D76" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="E76" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="F76" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="G76" s="64" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="57">
-        <v>71</v>
-      </c>
-      <c r="B77" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C77" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D77" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="E77" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="F77" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="G77" s="64" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="57">
-        <v>72</v>
-      </c>
-      <c r="B78" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C78" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D78" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="E78" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="F78" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="G78" s="64" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="57">
-        <v>73</v>
-      </c>
-      <c r="B79" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D79" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="E79" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="F79" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="G79" s="64" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="57">
-        <v>74</v>
-      </c>
-      <c r="B80" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C80" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D80" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="E80" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="F80" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="G80" s="64" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="57">
-        <v>75</v>
-      </c>
-      <c r="B81" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C81" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D81" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="E81" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="F81" s="61" t="s">
-        <v>419</v>
-      </c>
-      <c r="G81" s="64" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="57">
-        <v>76</v>
-      </c>
-      <c r="B82" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="C82" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D82" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="E82" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="F82" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="G82" s="64" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="57">
-        <v>77</v>
-      </c>
-      <c r="B83" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C83" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D83" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="E83" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F83" s="60" t="s">
-        <v>423</v>
-      </c>
-      <c r="G83" s="62" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="57">
-        <v>78</v>
-      </c>
-      <c r="B84" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C84" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D84" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="E84" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F84" s="60" t="s">
-        <v>426</v>
-      </c>
-      <c r="G84" s="62" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="57">
-        <v>79</v>
-      </c>
-      <c r="B85" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C85" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D85" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="E85" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F85" s="60" t="s">
-        <v>428</v>
-      </c>
-      <c r="G85" s="62" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="57">
-        <v>80</v>
-      </c>
-      <c r="B86" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C86" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D86" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="E86" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F86" s="60" t="s">
-        <v>430</v>
-      </c>
-      <c r="G86" s="62" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="57">
-        <v>81</v>
-      </c>
-      <c r="B87" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D87" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="E87" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F87" s="60" t="s">
-        <v>432</v>
-      </c>
-      <c r="G87" s="62" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="57">
-        <v>82</v>
-      </c>
-      <c r="B88" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D88" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="E88" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F88" s="60" t="s">
-        <v>433</v>
-      </c>
-      <c r="G88" s="62" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="57">
-        <v>83</v>
-      </c>
-      <c r="B89" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C89" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D89" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="E89" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F89" s="60" t="s">
-        <v>435</v>
-      </c>
-      <c r="G89" s="62" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="57">
-        <v>84</v>
-      </c>
-      <c r="B90" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C90" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D90" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="E90" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F90" s="60" t="s">
-        <v>436</v>
-      </c>
-      <c r="G90" s="62" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="57">
-        <v>85</v>
-      </c>
-      <c r="B91" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C91" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D91" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="E91" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F91" s="60" t="s">
-        <v>437</v>
-      </c>
-      <c r="G91" s="62" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="57">
-        <v>86</v>
-      </c>
-      <c r="B92" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C92" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D92" s="60" t="s">
-        <v>438</v>
-      </c>
-      <c r="E92" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F92" s="60" t="s">
-        <v>439</v>
-      </c>
-      <c r="G92" s="62" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="57">
-        <v>87</v>
-      </c>
-      <c r="B93" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C93" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D93" s="60" t="s">
-        <v>438</v>
-      </c>
-      <c r="E93" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F93" s="60" t="s">
-        <v>441</v>
-      </c>
-      <c r="G93" s="62" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="57">
-        <v>88</v>
-      </c>
-      <c r="B94" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C94" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D94" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="E94" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F94" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="G94" s="62" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="57">
-        <v>89</v>
-      </c>
-      <c r="B95" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C95" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D95" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="E95" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F95" s="60" t="s">
-        <v>443</v>
-      </c>
-      <c r="G95" s="62" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="57">
-        <v>90</v>
-      </c>
-      <c r="B96" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C96" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D96" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="E96" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F96" s="60" t="s">
-        <v>445</v>
-      </c>
-      <c r="G96" s="62" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="57">
-        <v>91</v>
-      </c>
-      <c r="B97" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C97" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D97" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="E97" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F97" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="G97" s="62" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="57">
-        <v>92</v>
-      </c>
-      <c r="B98" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C98" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="D98" s="60" t="s">
-        <v>448</v>
-      </c>
-      <c r="E98" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F98" s="60" t="s">
-        <v>449</v>
-      </c>
-      <c r="G98" s="62" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="57">
-        <v>93</v>
-      </c>
-      <c r="B99" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C99" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D99" s="65" t="s">
-        <v>450</v>
-      </c>
-      <c r="E99" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F99" s="65" t="s">
-        <v>451</v>
-      </c>
-      <c r="G99" s="66" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="57">
-        <v>94</v>
-      </c>
-      <c r="B100" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C100" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="E100" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F100" s="65" t="s">
-        <v>453</v>
-      </c>
-      <c r="G100" s="66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="57">
-        <v>95</v>
-      </c>
-      <c r="B101" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C101" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D101" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="E101" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F101" s="65" t="s">
-        <v>455</v>
-      </c>
-      <c r="G101" s="66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="57">
-        <v>96</v>
-      </c>
-      <c r="B102" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C102" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D102" s="65" t="s">
-        <v>456</v>
-      </c>
-      <c r="E102" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F102" s="65" t="s">
-        <v>457</v>
-      </c>
-      <c r="G102" s="66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="57">
-        <v>97</v>
-      </c>
-      <c r="B103" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C103" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D103" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="E103" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F103" s="65" t="s">
-        <v>458</v>
-      </c>
-      <c r="G103" s="66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="57">
-        <v>98</v>
-      </c>
-      <c r="B104" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C104" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="E104" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F104" s="65" t="s">
-        <v>459</v>
-      </c>
-      <c r="G104" s="66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="57">
-        <v>99</v>
-      </c>
-      <c r="B105" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C105" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D105" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="E105" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F105" s="65" t="s">
-        <v>460</v>
-      </c>
-      <c r="G105" s="66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="57">
-        <v>100</v>
-      </c>
-      <c r="B106" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C106" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D106" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="E106" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F106" s="65" t="s">
-        <v>461</v>
-      </c>
-      <c r="G106" s="66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="57">
-        <v>101</v>
-      </c>
-      <c r="B107" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C107" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="D107" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="E107" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F107" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="G107" s="66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="57">
-        <v>102</v>
-      </c>
-      <c r="B108" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C108" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="D108" s="65" t="s">
-        <v>463</v>
-      </c>
-      <c r="E108" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F108" s="65" t="s">
-        <v>464</v>
-      </c>
-      <c r="G108" s="66" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="57">
-        <v>103</v>
-      </c>
-      <c r="B109" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C109" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="D109" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="E109" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="F109" s="60" t="s">
-        <v>466</v>
-      </c>
-      <c r="G109" s="66" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="57">
-        <v>104</v>
-      </c>
-      <c r="B110" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C110" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="D110" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="E110" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="F110" s="60" t="s">
-        <v>467</v>
-      </c>
-      <c r="G110" s="66" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="67">
-        <v>105</v>
-      </c>
-      <c r="B111" s="68" t="s">
-        <v>421</v>
-      </c>
-      <c r="C111" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="D111" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="E111" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="F111" s="68" t="s">
-        <v>468</v>
-      </c>
-      <c r="G111" s="70" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>